--- a/hardware/BOM.xlsx
+++ b/hardware/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shurik/Dropbox/Robotics/github/servo_controller/hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314ADA14-2A97-DA4A-9E55-3D1548EB039C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CE0848-8045-F94B-B950-89E72D981F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{C1F5F366-3C57-FB48-BD0C-C1EC667A9867}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Description</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Hardware</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256805326967469.html</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/2477/303822</t>
   </si>
 </sst>
 </file>
@@ -193,11 +199,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -535,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB047CC0-2213-E548-9B03-040E10D26D5E}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,7 +555,7 @@
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,15 +569,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -580,15 +585,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -596,7 +601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -604,7 +609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -612,15 +617,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -634,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -648,21 +653,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -675,16 +680,22 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -698,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -706,7 +717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
